--- a/src/test/java/0_Resource/CucumberTestSonuçlari.xlsx
+++ b/src/test/java/0_Resource/CucumberTestSonuçlari.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Click the company logo and redirect to TechnoStudy Home Page</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -95,6 +98,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/0_Resource/CucumberTestSonuçlari.xlsx
+++ b/src/test/java/0_Resource/CucumberTestSonuçlari.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Click the company logo and redirect to TechnoStudy Home Page</t>
+  </si>
+  <si>
+    <t>Click on menu items</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -122,6 +125,102 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/0_Resource/CucumberTestSonuçlari.xlsx
+++ b/src/test/java/0_Resource/CucumberTestSonuçlari.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="7">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>Click on menu items</t>
+  </si>
+  <si>
+    <t>Send and Delete Message</t>
+  </si>
+  <si>
+    <t>Finance Functionality</t>
   </si>
 </sst>
 </file>
@@ -71,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -221,6 +227,102 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
